--- a/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,13</t>
+          <t>0,0; 15,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>284,2%</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,12%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,65%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-45,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 11,26</t>
+          <t>0,0; 11,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,47</t>
+          <t>0,0; 12,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 6,94</t>
+          <t>-41,56; 9,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,77; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>528,21%</t>
+          <t>-12,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>273,09%</t>
+          <t>177,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75,19%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 3,44</t>
+          <t>-10,19; 5,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,03</t>
+          <t>-2,45; 8,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,98</t>
+          <t>-3,48; 10,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 107,52</t>
+          <t>-3,31; 9,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,28; 271,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,32; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-78,47; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>13,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>496,06%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>321,87%</t>
+          <t>934,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>350,62%</t>
+          <t>205,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>146,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121,86%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,05</t>
+          <t>6,8; 21,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 14,92</t>
+          <t>1,27; 18,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 14,05</t>
+          <t>-1,58; 13,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,1; —</t>
+          <t>-2,16; 12,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 1685,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 1806,42</t>
+          <t>-10,35; inf</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-41,02; 1472,01</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-49,45; 1116,71</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>364,04%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-48,93%</t>
+          <t>61,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-58,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-20,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,57</t>
+          <t>-2,99; 7,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 13,64</t>
+          <t>-4,76; 11,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 2,53</t>
+          <t>-25,95; 3,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; 10,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,94; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 117,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-92,21; 189,47</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>554,22%</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-31,23%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 21,97</t>
+          <t>0,0; 16,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,04</t>
+          <t>0,0; 17,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,8</t>
+          <t>0,0; 17,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>116,01%</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>233,29%</t>
+          <t>285,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>216,09%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52,93%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,98</t>
+          <t>2,09; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,47</t>
+          <t>1,12; 6,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,04</t>
+          <t>-10,54; 4,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 345,31</t>
+          <t>-1,65; 4,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,69; 696,0</t>
+          <t>44,17; 955,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 231,64</t>
+          <t>28,37; 807,43</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-73,61; 167,32</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,02; 258,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>8.454310387939646</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.88391804721957</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,72%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,56; 9,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>3.565240422587278</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.004233789128937</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.046357990279364</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.81789862922377</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3993726009532031</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>177,4%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>103,34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>75,19%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-38.85391747651244</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 5,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 8,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 10,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 9,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-84,28; 271,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-78,47; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.91125383404376</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.41001834110339</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.887884908637092</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.56110681192852</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +785,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,33</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>934,16%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>205,52%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>146,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>121,86%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.1558222224740946</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.965659451162157</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.539486655122359</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.394970771121801</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.02688221976756919</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.969667045771617</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.21007040417593</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9291461985661996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 21,58</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 18,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 13,76</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 12,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; inf</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-41,02; 1472,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 1116,71</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.072372788363127</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.090738765294073</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.551613524363306</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.778030128198263</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8055794429651548</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7263349846688617</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.919529573556081</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.67754539978381</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.94477394171011</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.830497079027916</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.67903175443882</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,38%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>61,62%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-58,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-20,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 7,97</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 11,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-25,95; 3,97</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,6; 10,42</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-92,21; 189,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.75209493907709</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.281455227140739</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.836141436740339</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.948368108442111</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>8.951604707708677</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.147542361055329</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.484063511432935</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.16658314381115</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.331307425168162</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.392102493557338</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.593398674624848</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.226441647578785</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.116928862366553</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4217493777537715</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5212327891058712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,36</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.20197895833628</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.6221084309269</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.84544800984354</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.6744198071901</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>14.60500358635096</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>14.42634495140484</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>9.433939385730266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +971,277 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>285,34%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>216,09%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>52,93%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.6256852616484889</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.027739108918546</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.385140610087593</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-3.152962933714271</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.4480274524714273</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.7286420530353163</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.6318291512034624</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.2285312570773402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 7,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 6,35</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 4,07</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>44,17; 955,76</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 807,43</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-73,61; 167,32</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-37,02; 258,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.782898182579291</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.111790423319999</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-31.406391910043</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-21.4033581738159</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-0.9295363131420051</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.142551545906203</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.24521614739385</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.114727295835783</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>9.630027712702383</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>1.656478416722482</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>4.976967615329063</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>4.223088279990008</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.074929923586336</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2.515415878760417</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15.98604277031275</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>19.6717104929816</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>15.16625258058175</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>12.19822351439838</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.629422838374218</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.775794732170277</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.04818520363850318</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.746261501057337</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.478291761745266</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>2.303897011534671</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.008516178819264246</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.5347195079868448</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.744977864385162</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.193402582149339</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-9.972173659427188</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.685474214245126</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.6968612615688481</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.3394535379122302</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.7151956921807827</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.3785221865034429</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.491085042544293</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.392385516314704</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.160336759127479</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.741229308184633</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>11.5917734970012</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>8.294385816771884</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.700536699440565</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.620445531675269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1249,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
